--- a/progAssign2/OFB DATA.docx.xlsx
+++ b/progAssign2/OFB DATA.docx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>Size (bytes)</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>256AES</t>
+  </si>
+  <si>
+    <t>total avg:</t>
   </si>
   <si>
     <t>DES</t>
@@ -171,7 +174,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>DES 64bit Key (CTR)</a:t>
+              <a:t>DES 64bit Key (OFB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -272,11 +275,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="100169368"/>
-        <c:axId val="900629208"/>
+        <c:axId val="906497513"/>
+        <c:axId val="539800898"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100169368"/>
+        <c:axId val="906497513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,10 +331,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900629208"/>
+        <c:crossAx val="539800898"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="900629208"/>
+        <c:axId val="539800898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +409,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100169368"/>
+        <c:crossAx val="906497513"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -456,7 +459,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 128bit Key (CTR)</a:t>
+              <a:t>AES 128bit Key (OFB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -557,11 +560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1162081726"/>
-        <c:axId val="113852772"/>
+        <c:axId val="236187018"/>
+        <c:axId val="1392452074"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162081726"/>
+        <c:axId val="236187018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,10 +616,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113852772"/>
+        <c:crossAx val="1392452074"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113852772"/>
+        <c:axId val="1392452074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162081726"/>
+        <c:crossAx val="236187018"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -741,7 +744,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>3DES 64bit Key (CTR)</a:t>
+              <a:t>3DES 64bit Key (OFB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -842,11 +845,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2029830027"/>
-        <c:axId val="1058094372"/>
+        <c:axId val="999528039"/>
+        <c:axId val="135746029"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2029830027"/>
+        <c:axId val="999528039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,10 +901,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058094372"/>
+        <c:crossAx val="135746029"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058094372"/>
+        <c:axId val="135746029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029830027"/>
+        <c:crossAx val="999528039"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1026,7 +1029,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 128bit Key (CTR)(HL)</a:t>
+              <a:t>AES 128bit Key (OFB)(HL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1127,11 +1130,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1044671351"/>
-        <c:axId val="990252560"/>
+        <c:axId val="473318094"/>
+        <c:axId val="2140878287"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1044671351"/>
+        <c:axId val="473318094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,10 +1186,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990252560"/>
+        <c:crossAx val="2140878287"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990252560"/>
+        <c:axId val="2140878287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044671351"/>
+        <c:crossAx val="473318094"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1311,7 +1314,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 192bit Key (CTR)(HL)</a:t>
+              <a:t>AES 192bit Key (OFB)(HL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,11 +1415,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1381407351"/>
-        <c:axId val="904747613"/>
+        <c:axId val="845974485"/>
+        <c:axId val="1608926974"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1381407351"/>
+        <c:axId val="845974485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,10 +1471,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904747613"/>
+        <c:crossAx val="1608926974"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="904747613"/>
+        <c:axId val="1608926974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381407351"/>
+        <c:crossAx val="845974485"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1596,7 +1599,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 256bit Key (CTR)(HL)</a:t>
+              <a:t>AES 256bit Key (OFB)(HL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1697,11 +1700,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1641839916"/>
-        <c:axId val="97515842"/>
+        <c:axId val="18032001"/>
+        <c:axId val="563432069"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1641839916"/>
+        <c:axId val="18032001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,10 +1756,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97515842"/>
+        <c:crossAx val="563432069"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97515842"/>
+        <c:axId val="563432069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1834,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1641839916"/>
+        <c:crossAx val="18032001"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1881,7 +1884,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>DES 64bit Key (CTR)(HL)</a:t>
+              <a:t>DES 64bit Key (OFB)(HL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1982,11 +1985,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="378453011"/>
-        <c:axId val="515448054"/>
+        <c:axId val="1420007918"/>
+        <c:axId val="1506359941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378453011"/>
+        <c:axId val="1420007918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,10 +2041,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515448054"/>
+        <c:crossAx val="1506359941"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515448054"/>
+        <c:axId val="1506359941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378453011"/>
+        <c:crossAx val="1420007918"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2166,7 +2169,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>3DES 64bit Key (CTR)(HL)</a:t>
+              <a:t>3DES 64bit Key (OFB)(HL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2267,11 +2270,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1373749134"/>
-        <c:axId val="328948182"/>
+        <c:axId val="1981976101"/>
+        <c:axId val="1429272810"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1373749134"/>
+        <c:axId val="1981976101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,10 +2326,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328948182"/>
+        <c:crossAx val="1429272810"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328948182"/>
+        <c:axId val="1429272810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2404,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373749134"/>
+        <c:crossAx val="1981976101"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2451,7 +2454,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 256bit Key (CTR)</a:t>
+              <a:t>AES 256bit Key (OFB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2552,11 +2555,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="837419500"/>
-        <c:axId val="1895800948"/>
+        <c:axId val="1380625311"/>
+        <c:axId val="1616732729"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="837419500"/>
+        <c:axId val="1380625311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,10 +2611,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895800948"/>
+        <c:crossAx val="1616732729"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895800948"/>
+        <c:axId val="1616732729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837419500"/>
+        <c:crossAx val="1380625311"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2736,7 +2739,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>AES 192bit Key (CTR)</a:t>
+              <a:t>AES 192bit Key (OFB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2837,11 +2840,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1232756830"/>
-        <c:axId val="1420597611"/>
+        <c:axId val="1072158826"/>
+        <c:axId val="243137547"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1232756830"/>
+        <c:axId val="1072158826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,10 +2896,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1420597611"/>
+        <c:crossAx val="243137547"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1420597611"/>
+        <c:axId val="243137547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +2974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232756830"/>
+        <c:crossAx val="1072158826"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4059,8 +4062,13 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3">
+        <f>AVERAGE(D2:D6,D9:D13,I8:I12,D16:D20,D23:D27,D32:D36,I32:I36,D40:D44,I40:I44,D47:D51)</f>
+        <v>7.087567286</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -4230,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4341,7 +4349,7 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4492,7 +4500,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -4534,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -4549,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4853,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
@@ -4868,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
